--- a/tests/test_data/building_dendro_reduced.xlsx
+++ b/tests/test_data/building_dendro_reduced.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="144">
   <si>
     <t>table_name</t>
   </si>
@@ -107,9 +107,6 @@
   </si>
   <si>
     <t>tbl_abundances</t>
-  </si>
-  <si>
-    <t>YES</t>
   </si>
   <si>
     <t>system_id</t>
@@ -852,231 +849,231 @@
       <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" t="s">
-        <v>24</v>
+      <c r="B2" t="b">
+        <v>1</v>
+      </c>
+      <c r="C2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" t="s">
-        <v>24</v>
+      <c r="B3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C3" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
-      <c r="B4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" t="s">
-        <v>24</v>
+      <c r="B4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C4" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
-      <c r="B5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" t="s">
-        <v>24</v>
+      <c r="B5" t="b">
+        <v>1</v>
+      </c>
+      <c r="C5" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
-      <c r="B6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" t="s">
-        <v>24</v>
+      <c r="B6" t="b">
+        <v>1</v>
+      </c>
+      <c r="C6" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
-      <c r="B7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" t="s">
-        <v>24</v>
+      <c r="B7" t="b">
+        <v>1</v>
+      </c>
+      <c r="C7" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>9</v>
       </c>
-      <c r="B8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
+      <c r="B8" t="b">
+        <v>1</v>
+      </c>
+      <c r="C8" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>10</v>
       </c>
-      <c r="B9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
+      <c r="B9" t="b">
+        <v>1</v>
+      </c>
+      <c r="C9" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>11</v>
       </c>
-      <c r="B10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
+      <c r="B10" t="b">
+        <v>1</v>
+      </c>
+      <c r="C10" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
         <v>12</v>
       </c>
-      <c r="B11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" t="s">
-        <v>24</v>
+      <c r="B11" t="b">
+        <v>1</v>
+      </c>
+      <c r="C11" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
         <v>13</v>
       </c>
-      <c r="B12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" t="s">
-        <v>24</v>
+      <c r="B12" t="b">
+        <v>1</v>
+      </c>
+      <c r="C12" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
         <v>14</v>
       </c>
-      <c r="B13" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" t="s">
-        <v>24</v>
+      <c r="B13" t="b">
+        <v>1</v>
+      </c>
+      <c r="C13" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
         <v>15</v>
       </c>
-      <c r="B14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" t="s">
-        <v>24</v>
+      <c r="B14" t="b">
+        <v>1</v>
+      </c>
+      <c r="C14" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
         <v>16</v>
       </c>
-      <c r="B15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" t="s">
-        <v>24</v>
+      <c r="B15" t="b">
+        <v>1</v>
+      </c>
+      <c r="C15" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
         <v>17</v>
       </c>
-      <c r="B16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" t="s">
-        <v>24</v>
+      <c r="B16" t="b">
+        <v>1</v>
+      </c>
+      <c r="C16" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
         <v>18</v>
       </c>
-      <c r="B17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" t="s">
-        <v>24</v>
+      <c r="B17" t="b">
+        <v>1</v>
+      </c>
+      <c r="C17" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
         <v>19</v>
       </c>
-      <c r="B18" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" t="s">
-        <v>24</v>
+      <c r="B18" t="b">
+        <v>1</v>
+      </c>
+      <c r="C18" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
         <v>20</v>
       </c>
-      <c r="B19" t="s">
-        <v>24</v>
-      </c>
-      <c r="C19" t="s">
-        <v>24</v>
+      <c r="B19" t="b">
+        <v>1</v>
+      </c>
+      <c r="C19" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
         <v>21</v>
       </c>
-      <c r="B20" t="s">
-        <v>24</v>
-      </c>
-      <c r="C20" t="s">
-        <v>24</v>
+      <c r="B20" t="b">
+        <v>1</v>
+      </c>
+      <c r="C20" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
         <v>22</v>
       </c>
-      <c r="B21" t="s">
-        <v>24</v>
-      </c>
-      <c r="C21" t="s">
-        <v>24</v>
+      <c r="B21" t="b">
+        <v>1</v>
+      </c>
+      <c r="C21" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
         <v>23</v>
       </c>
-      <c r="B22" t="s">
-        <v>24</v>
-      </c>
-      <c r="C22" t="s">
-        <v>24</v>
+      <c r="B22" t="b">
+        <v>1</v>
+      </c>
+      <c r="C22" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1094,22 +1091,22 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>74</v>
-      </c>
       <c r="F1" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -1123,7 +1120,7 @@
         <v>53971</v>
       </c>
       <c r="E2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1137,7 +1134,7 @@
         <v>53972</v>
       </c>
       <c r="E3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -1155,22 +1152,22 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>77</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -1184,7 +1181,7 @@
         <v>53971</v>
       </c>
       <c r="D2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1198,7 +1195,7 @@
         <v>53971</v>
       </c>
       <c r="D3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1212,7 +1209,7 @@
         <v>53971</v>
       </c>
       <c r="D4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1226,7 +1223,7 @@
         <v>53971</v>
       </c>
       <c r="D5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1240,7 +1237,7 @@
         <v>53971</v>
       </c>
       <c r="D6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1254,7 +1251,7 @@
         <v>53971</v>
       </c>
       <c r="D7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1268,7 +1265,7 @@
         <v>53972</v>
       </c>
       <c r="D8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1282,7 +1279,7 @@
         <v>53972</v>
       </c>
       <c r="D9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1296,7 +1293,7 @@
         <v>53972</v>
       </c>
       <c r="D10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1310,7 +1307,7 @@
         <v>53972</v>
       </c>
       <c r="D11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1324,7 +1321,7 @@
         <v>53972</v>
       </c>
       <c r="D12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1338,7 +1335,7 @@
         <v>53972</v>
       </c>
       <c r="D13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -1356,22 +1353,22 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>89</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -1389,22 +1386,22 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>91</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -1450,19 +1447,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>93</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1612,22 +1609,22 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>96</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -1641,7 +1638,7 @@
         <v>121</v>
       </c>
       <c r="D2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1655,7 +1652,7 @@
         <v>121</v>
       </c>
       <c r="D3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1669,7 +1666,7 @@
         <v>125</v>
       </c>
       <c r="D4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1697,7 +1694,7 @@
         <v>127</v>
       </c>
       <c r="D6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1711,7 +1708,7 @@
         <v>128</v>
       </c>
       <c r="D7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1725,7 +1722,7 @@
         <v>129</v>
       </c>
       <c r="D8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1739,7 +1736,7 @@
         <v>125</v>
       </c>
       <c r="D9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1767,7 +1764,7 @@
         <v>127</v>
       </c>
       <c r="D11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1781,7 +1778,7 @@
         <v>128</v>
       </c>
       <c r="D12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1795,7 +1792,7 @@
         <v>129</v>
       </c>
       <c r="D13" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1981,37 +1978,37 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>108</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:11">
@@ -2091,16 +2088,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -2118,34 +2115,34 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>115</v>
-      </c>
       <c r="I1" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -2159,7 +2156,7 @@
         <v>19</v>
       </c>
       <c r="D2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E2">
         <v>10</v>
@@ -2182,7 +2179,7 @@
         <v>19</v>
       </c>
       <c r="D3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E3">
         <v>10</v>
@@ -2205,7 +2202,7 @@
         <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E4">
         <v>10</v>
@@ -2228,7 +2225,7 @@
         <v>6</v>
       </c>
       <c r="D5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E5">
         <v>10</v>
@@ -2251,7 +2248,7 @@
         <v>15</v>
       </c>
       <c r="D6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E6">
         <v>10</v>
@@ -2274,7 +2271,7 @@
         <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E7">
         <v>10</v>
@@ -2297,7 +2294,7 @@
         <v>5</v>
       </c>
       <c r="D8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E8">
         <v>10</v>
@@ -2320,7 +2317,7 @@
         <v>5</v>
       </c>
       <c r="D9" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E9">
         <v>10</v>
@@ -2343,7 +2340,7 @@
         <v>43</v>
       </c>
       <c r="D10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E10">
         <v>10</v>
@@ -2366,7 +2363,7 @@
         <v>43</v>
       </c>
       <c r="D11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E11">
         <v>10</v>
@@ -2389,7 +2386,7 @@
         <v>44</v>
       </c>
       <c r="D12" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E12">
         <v>10</v>
@@ -2412,7 +2409,7 @@
         <v>44</v>
       </c>
       <c r="D13" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E13">
         <v>10</v>
@@ -2439,22 +2436,22 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>129</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -2640,37 +2637,37 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:11">
@@ -2678,7 +2675,7 @@
         <v>1635</v>
       </c>
       <c r="C2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F2">
         <v>58.0836551307243</v>
@@ -2702,28 +2699,28 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>133</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -3353,28 +3350,28 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>138</v>
-      </c>
       <c r="F1" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -3388,10 +3385,10 @@
         <v>6</v>
       </c>
       <c r="D2" t="s">
+        <v>138</v>
+      </c>
+      <c r="F2" t="s">
         <v>139</v>
-      </c>
-      <c r="F2" t="s">
-        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -3409,25 +3406,25 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>143</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -3479,19 +3476,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>38</v>
-      </c>
       <c r="E1" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -3575,22 +3572,22 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -3608,31 +3605,31 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -3640,7 +3637,7 @@
         <v>11952</v>
       </c>
       <c r="C2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E2">
         <v>1635</v>
@@ -3667,22 +3664,22 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -3690,7 +3687,7 @@
         <v>508</v>
       </c>
       <c r="B2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C2">
         <v>62</v>
@@ -3704,7 +3701,7 @@
         <v>509</v>
       </c>
       <c r="B3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C3">
         <v>61</v>
@@ -3718,7 +3715,7 @@
         <v>510</v>
       </c>
       <c r="B4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C4">
         <v>59</v>
@@ -3732,7 +3729,7 @@
         <v>511</v>
       </c>
       <c r="B5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C5">
         <v>58</v>
@@ -3746,7 +3743,7 @@
         <v>512</v>
       </c>
       <c r="B6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C6">
         <v>56</v>
@@ -3760,7 +3757,7 @@
         <v>513</v>
       </c>
       <c r="B7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C7">
         <v>55</v>
@@ -3774,7 +3771,7 @@
         <v>514</v>
       </c>
       <c r="B8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C8">
         <v>54</v>
@@ -3788,7 +3785,7 @@
         <v>515</v>
       </c>
       <c r="B9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C9">
         <v>53</v>
@@ -3812,28 +3809,28 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -3851,19 +3848,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>64</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -3881,28 +3878,28 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>70</v>
-      </c>
       <c r="H1" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -3922,7 +3919,7 @@
         <v>75699</v>
       </c>
       <c r="G2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -3942,7 +3939,7 @@
         <v>75800</v>
       </c>
       <c r="G3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/tests/test_data/building_dendro_reduced.xlsx
+++ b/tests/test_data/building_dendro_reduced.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roma0050\Documents\projects\sead\sead_clearinghouse_import\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFE142AB-822C-4DD6-BC21-875D5ADE83CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="0" yWindow="1927" windowWidth="28328" windowHeight="11836" firstSheet="11" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data_table_index" sheetId="1" r:id="rId1"/>
@@ -30,12 +36,12 @@
     <sheet name="tbl_projects" sheetId="21" r:id="rId21"/>
     <sheet name="tbl_abundances" sheetId="22" r:id="rId22"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="148">
   <si>
     <t>table_name</t>
   </si>
@@ -352,9 +358,6 @@
     <t>age_type_id</t>
   </si>
   <si>
-    <t>error_uncertainty_id</t>
-  </si>
-  <si>
     <t>dating_uncertainty_id</t>
   </si>
   <si>
@@ -467,16 +470,31 @@
   </si>
   <si>
     <t>abundance_id</t>
+  </si>
+  <si>
+    <t>Precise</t>
+  </si>
+  <si>
+    <t>12637A Abbotens hus</t>
+  </si>
+  <si>
+    <t>Ladugården är riven men några stockar är bevarade</t>
+  </si>
+  <si>
+    <t>Samma träd som 10009</t>
+  </si>
+  <si>
+    <t>Fällningsåret omräknat med nuvarande splintstatistik för ek 17±7</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -493,12 +511,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -528,25 +552,37 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -584,7 +620,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -618,6 +654,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -652,9 +689,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -827,14 +865,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -845,7 +883,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -856,7 +894,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -867,7 +905,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -878,7 +916,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -889,7 +927,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -900,7 +938,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -911,7 +949,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -922,7 +960,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -933,7 +971,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -944,7 +982,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -955,7 +993,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -966,7 +1004,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -977,7 +1015,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -988,7 +1026,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -999,7 +1037,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -1010,7 +1048,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -1021,7 +1059,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>19</v>
       </c>
@@ -1032,7 +1070,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>20</v>
       </c>
@@ -1043,7 +1081,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>21</v>
       </c>
@@ -1054,7 +1092,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>22</v>
       </c>
@@ -1065,7 +1103,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>23</v>
       </c>
@@ -1082,14 +1120,14 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
@@ -1109,7 +1147,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>3843</v>
       </c>
@@ -1123,7 +1161,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>3844</v>
       </c>
@@ -1143,14 +1181,14 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
@@ -1170,7 +1208,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>21427</v>
       </c>
@@ -1184,7 +1222,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>21428</v>
       </c>
@@ -1198,7 +1236,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>21429</v>
       </c>
@@ -1212,7 +1250,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>21430</v>
       </c>
@@ -1226,7 +1264,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>21431</v>
       </c>
@@ -1240,7 +1278,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>21432</v>
       </c>
@@ -1254,7 +1292,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>21433</v>
       </c>
@@ -1268,7 +1306,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>21434</v>
       </c>
@@ -1282,7 +1320,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>21435</v>
       </c>
@@ -1296,7 +1334,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>21436</v>
       </c>
@@ -1310,7 +1348,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>21437</v>
       </c>
@@ -1324,7 +1362,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>21438</v>
       </c>
@@ -1344,14 +1382,24 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+  <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.59765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.1328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.59765625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.19921875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.86328125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
@@ -1369,6 +1417,17 @@
       </c>
       <c r="F1" s="1" t="s">
         <v>89</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>11952</v>
+      </c>
+      <c r="D2" t="s">
+        <v>146</v>
       </c>
     </row>
   </sheetData>
@@ -1377,14 +1436,14 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
@@ -1404,7 +1463,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>2095</v>
       </c>
@@ -1418,7 +1477,7 @@
         <v>53971</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>2096</v>
       </c>
@@ -1438,14 +1497,14 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
@@ -1462,7 +1521,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>4191</v>
       </c>
@@ -1473,7 +1532,7 @@
         <v>53971</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>4192</v>
       </c>
@@ -1484,7 +1543,7 @@
         <v>53972</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>9207</v>
       </c>
@@ -1495,7 +1554,7 @@
         <v>53971</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>9208</v>
       </c>
@@ -1506,7 +1565,7 @@
         <v>53972</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>14223</v>
       </c>
@@ -1517,7 +1576,7 @@
         <v>53971</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>14224</v>
       </c>
@@ -1528,7 +1587,7 @@
         <v>53972</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>19239</v>
       </c>
@@ -1539,7 +1598,7 @@
         <v>53971</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>19240</v>
       </c>
@@ -1550,7 +1609,7 @@
         <v>53972</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>24255</v>
       </c>
@@ -1561,7 +1620,7 @@
         <v>53971</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>24256</v>
       </c>
@@ -1572,7 +1631,7 @@
         <v>53972</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>29267</v>
       </c>
@@ -1583,7 +1642,7 @@
         <v>53971</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>29268</v>
       </c>
@@ -1600,14 +1659,14 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
@@ -1627,7 +1686,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>4191</v>
       </c>
@@ -1641,7 +1700,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>4192</v>
       </c>
@@ -1655,7 +1714,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>26032</v>
       </c>
@@ -1669,7 +1728,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>26033</v>
       </c>
@@ -1683,7 +1742,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>26034</v>
       </c>
@@ -1697,7 +1756,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>26035</v>
       </c>
@@ -1711,7 +1770,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>26036</v>
       </c>
@@ -1725,7 +1784,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>26037</v>
       </c>
@@ -1739,7 +1798,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>26038</v>
       </c>
@@ -1753,7 +1812,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>26039</v>
       </c>
@@ -1767,7 +1826,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>26040</v>
       </c>
@@ -1781,7 +1840,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>26041</v>
       </c>
@@ -1795,7 +1854,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>36124</v>
       </c>
@@ -1809,7 +1868,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>36125</v>
       </c>
@@ -1823,7 +1882,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>41607</v>
       </c>
@@ -1837,7 +1896,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>41608</v>
       </c>
@@ -1851,7 +1910,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>59193</v>
       </c>
@@ -1865,7 +1924,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>59194</v>
       </c>
@@ -1879,7 +1938,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>59195</v>
       </c>
@@ -1893,7 +1952,7 @@
         <v>1670</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>59196</v>
       </c>
@@ -1907,7 +1966,7 @@
         <v>1710</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>59197</v>
       </c>
@@ -1921,7 +1980,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>59198</v>
       </c>
@@ -1935,7 +1994,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A24">
         <v>59199</v>
       </c>
@@ -1949,7 +2008,7 @@
         <v>1710</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A25">
         <v>59200</v>
       </c>
@@ -1969,14 +2028,28 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
+  <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.73046875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.86328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.3984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.796875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.19921875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.796875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
@@ -1996,80 +2069,89 @@
         <v>106</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>3072</v>
       </c>
       <c r="B2">
         <v>1774</v>
       </c>
+      <c r="D2" s="4">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>14223</v>
+      </c>
       <c r="H2">
-        <v>14223</v>
-      </c>
-      <c r="I2">
         <v>137</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>3073</v>
       </c>
       <c r="B3">
         <v>1865</v>
       </c>
+      <c r="D3" s="4">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>14224</v>
+      </c>
       <c r="H3">
-        <v>14224</v>
-      </c>
-      <c r="I3">
         <v>137</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>6734</v>
       </c>
       <c r="B4">
         <v>1774</v>
       </c>
+      <c r="D4" s="4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>3</v>
+      </c>
       <c r="G4">
-        <v>3</v>
+        <v>29267</v>
       </c>
       <c r="H4">
-        <v>29267</v>
-      </c>
-      <c r="I4">
         <v>134</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>6735</v>
       </c>
       <c r="B5">
         <v>1865</v>
       </c>
+      <c r="D5" s="4">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>3</v>
+      </c>
       <c r="G5">
-        <v>3</v>
+        <v>29268</v>
       </c>
       <c r="H5">
-        <v>29268</v>
-      </c>
-      <c r="I5">
         <v>134</v>
       </c>
     </row>
@@ -2079,14 +2161,23 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
+  <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.53125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.59765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.19921875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.86328125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
@@ -2094,10 +2185,24 @@
         <v>63</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>32</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C2">
+        <v>3072</v>
       </c>
     </row>
   </sheetData>
@@ -2106,14 +2211,14 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
@@ -2121,22 +2226,22 @@
         <v>38</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>111</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>112</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>44</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>113</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>114</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>32</v>
@@ -2145,7 +2250,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>4191</v>
       </c>
@@ -2156,7 +2261,7 @@
         <v>19</v>
       </c>
       <c r="D2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E2">
         <v>10</v>
@@ -2168,7 +2273,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>4192</v>
       </c>
@@ -2179,7 +2284,7 @@
         <v>19</v>
       </c>
       <c r="D3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E3">
         <v>10</v>
@@ -2191,7 +2296,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>9207</v>
       </c>
@@ -2202,7 +2307,7 @@
         <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E4">
         <v>10</v>
@@ -2214,7 +2319,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>9208</v>
       </c>
@@ -2225,7 +2330,7 @@
         <v>6</v>
       </c>
       <c r="D5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E5">
         <v>10</v>
@@ -2237,7 +2342,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>14223</v>
       </c>
@@ -2248,7 +2353,7 @@
         <v>15</v>
       </c>
       <c r="D6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E6">
         <v>10</v>
@@ -2260,7 +2365,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>14224</v>
       </c>
@@ -2271,7 +2376,7 @@
         <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E7">
         <v>10</v>
@@ -2283,7 +2388,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>19239</v>
       </c>
@@ -2294,7 +2399,7 @@
         <v>5</v>
       </c>
       <c r="D8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E8">
         <v>10</v>
@@ -2306,7 +2411,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>19240</v>
       </c>
@@ -2317,7 +2422,7 @@
         <v>5</v>
       </c>
       <c r="D9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E9">
         <v>10</v>
@@ -2329,7 +2434,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>24255</v>
       </c>
@@ -2340,7 +2445,7 @@
         <v>43</v>
       </c>
       <c r="D10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E10">
         <v>10</v>
@@ -2352,7 +2457,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>24256</v>
       </c>
@@ -2363,7 +2468,7 @@
         <v>43</v>
       </c>
       <c r="D11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E11">
         <v>10</v>
@@ -2375,7 +2480,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>29267</v>
       </c>
@@ -2386,7 +2491,7 @@
         <v>44</v>
       </c>
       <c r="D12" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E12">
         <v>10</v>
@@ -2398,7 +2503,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>29268</v>
       </c>
@@ -2409,7 +2514,7 @@
         <v>44</v>
       </c>
       <c r="D13" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E13">
         <v>10</v>
@@ -2427,22 +2532,22 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>127</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>128</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>92</v>
@@ -2451,10 +2556,10 @@
         <v>32</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>4191</v>
       </c>
@@ -2468,7 +2573,7 @@
         <v>4191</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>4192</v>
       </c>
@@ -2482,7 +2587,7 @@
         <v>4192</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>9207</v>
       </c>
@@ -2496,7 +2601,7 @@
         <v>9207</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>9208</v>
       </c>
@@ -2510,7 +2615,7 @@
         <v>9208</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>14223</v>
       </c>
@@ -2524,7 +2629,7 @@
         <v>14223</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>14224</v>
       </c>
@@ -2538,7 +2643,7 @@
         <v>14224</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>19239</v>
       </c>
@@ -2552,7 +2657,7 @@
         <v>19239</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>19240</v>
       </c>
@@ -2566,7 +2671,7 @@
         <v>19240</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>24255</v>
       </c>
@@ -2580,7 +2685,7 @@
         <v>24255</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>24256</v>
       </c>
@@ -2594,7 +2699,7 @@
         <v>24256</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>29267</v>
       </c>
@@ -2608,7 +2713,7 @@
         <v>29267</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>29268</v>
       </c>
@@ -2628,14 +2733,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
@@ -2670,7 +2775,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1635</v>
       </c>
@@ -2678,10 +2783,10 @@
         <v>35</v>
       </c>
       <c r="F2">
-        <v>58.0836551307243</v>
+        <v>58.083655130724303</v>
       </c>
       <c r="G2">
-        <v>16.4887472928153</v>
+        <v>16.488747292815301</v>
       </c>
     </row>
   </sheetData>
@@ -2690,40 +2795,40 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <dimension ref="A1:H37"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>92</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>32</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>12188</v>
       </c>
@@ -2740,7 +2845,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>12189</v>
       </c>
@@ -2757,7 +2862,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>12190</v>
       </c>
@@ -2774,7 +2879,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>12191</v>
       </c>
@@ -2791,7 +2896,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>12192</v>
       </c>
@@ -2808,7 +2913,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>12193</v>
       </c>
@@ -2825,7 +2930,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>26715</v>
       </c>
@@ -2842,7 +2947,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>26716</v>
       </c>
@@ -2859,7 +2964,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>26717</v>
       </c>
@@ -2876,7 +2981,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>26718</v>
       </c>
@@ -2893,7 +2998,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>26719</v>
       </c>
@@ -2910,7 +3015,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>26720</v>
       </c>
@@ -2927,7 +3032,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>41242</v>
       </c>
@@ -2944,7 +3049,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>41243</v>
       </c>
@@ -2961,7 +3066,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>41244</v>
       </c>
@@ -2978,7 +3083,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>41245</v>
       </c>
@@ -2995,7 +3100,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>41246</v>
       </c>
@@ -3012,7 +3117,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>41247</v>
       </c>
@@ -3029,7 +3134,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>55769</v>
       </c>
@@ -3046,7 +3151,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>55770</v>
       </c>
@@ -3063,7 +3168,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>55771</v>
       </c>
@@ -3080,7 +3185,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>55772</v>
       </c>
@@ -3097,7 +3202,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A24">
         <v>55773</v>
       </c>
@@ -3114,7 +3219,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A25">
         <v>55774</v>
       </c>
@@ -3131,7 +3236,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A26">
         <v>70296</v>
       </c>
@@ -3148,7 +3253,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A27">
         <v>70297</v>
       </c>
@@ -3165,7 +3270,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A28">
         <v>70298</v>
       </c>
@@ -3182,7 +3287,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A29">
         <v>70299</v>
       </c>
@@ -3199,7 +3304,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A30">
         <v>70300</v>
       </c>
@@ -3216,7 +3321,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A31">
         <v>70301</v>
       </c>
@@ -3233,7 +3338,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A32">
         <v>84811</v>
       </c>
@@ -3250,7 +3355,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A33">
         <v>84812</v>
       </c>
@@ -3267,7 +3372,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A34">
         <v>84813</v>
       </c>
@@ -3284,7 +3389,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A35">
         <v>84814</v>
       </c>
@@ -3301,7 +3406,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A36">
         <v>84815</v>
       </c>
@@ -3318,7 +3423,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A37">
         <v>84816</v>
       </c>
@@ -3341,28 +3446,28 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>136</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>137</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>73</v>
@@ -3371,10 +3476,10 @@
         <v>32</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>550</v>
       </c>
@@ -3385,10 +3490,10 @@
         <v>6</v>
       </c>
       <c r="D2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F2" t="s">
         <v>138</v>
-      </c>
-      <c r="F2" t="s">
-        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -3397,37 +3502,39 @@
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>93</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>141</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>142</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>32</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>3930</v>
       </c>
@@ -3444,7 +3551,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>3931</v>
       </c>
@@ -3467,14 +3574,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
@@ -3491,7 +3598,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>391</v>
       </c>
@@ -3502,7 +3609,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>392</v>
       </c>
@@ -3513,7 +3620,7 @@
         <v>3737</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>393</v>
       </c>
@@ -3524,7 +3631,7 @@
         <v>3760</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>394</v>
       </c>
@@ -3535,7 +3642,7 @@
         <v>4820</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>395</v>
       </c>
@@ -3546,7 +3653,7 @@
         <v>5064</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>396</v>
       </c>
@@ -3563,14 +3670,16 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
@@ -3588,6 +3697,17 @@
       </c>
       <c r="F1" s="1" t="s">
         <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1635</v>
+      </c>
+      <c r="C2">
+        <v>352</v>
       </c>
     </row>
   </sheetData>
@@ -3596,14 +3716,16 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
@@ -3632,7 +3754,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>11952</v>
       </c>
@@ -3655,14 +3777,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
@@ -3682,7 +3804,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>508</v>
       </c>
@@ -3696,7 +3818,7 @@
         <v>11952</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>509</v>
       </c>
@@ -3710,7 +3832,7 @@
         <v>11952</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>510</v>
       </c>
@@ -3724,7 +3846,7 @@
         <v>11952</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>511</v>
       </c>
@@ -3738,7 +3860,7 @@
         <v>11952</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>512</v>
       </c>
@@ -3752,7 +3874,7 @@
         <v>11952</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>513</v>
       </c>
@@ -3766,7 +3888,7 @@
         <v>11952</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>514</v>
       </c>
@@ -3780,7 +3902,7 @@
         <v>11952</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>515</v>
       </c>
@@ -3800,14 +3922,26 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.86328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.06640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.19921875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.59765625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.1328125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
@@ -3831,6 +3965,26 @@
       </c>
       <c r="H1" s="1" t="s">
         <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A2">
+        <v>143</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>143</v>
+      </c>
+      <c r="D2">
+        <v>143</v>
+      </c>
+      <c r="E2">
+        <v>57.527685078434402</v>
+      </c>
+      <c r="H2" t="s">
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -3839,14 +3993,23 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.86328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="41.73046875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.19921875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
@@ -3861,6 +4024,17 @@
       </c>
       <c r="E1" s="1" t="s">
         <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>11952</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>145</v>
       </c>
     </row>
   </sheetData>
@@ -3869,14 +4043,26 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.59765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.86328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.1328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.73046875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.1328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.265625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.19921875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
@@ -3902,7 +4088,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>53971</v>
       </c>
@@ -3922,7 +4108,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>53972</v>
       </c>
